--- a/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>25,35</t>
+          <t>-4,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>-8,95</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>13,32%</t>
+          <t>-1,95</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>44,92%</t>
+          <t>121,09%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-6,33%</t>
+          <t>-33,79%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-14,75%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,31; 36,55</t>
+          <t>-4,18; 22,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 56,49</t>
+          <t>-18,84; 8,72</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-32,72; 29,23</t>
+          <t>-20,8; -1,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-32,47; 109,77</t>
+          <t>-16,21; 14,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 166,59</t>
+          <t>-67,1; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-48,33; 77,24</t>
+          <t>-88,34; 167,44</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-74,64; 271,61</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>-3,16</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>17,16</t>
+          <t>-3,69</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>9,51</t>
+          <t>-3,6</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>-2,64</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>-43,78%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,7%</t>
+          <t>-55,27%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-54,92%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-28,35%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-21,45; 29,17</t>
+          <t>-8,28; 1,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 40,93</t>
+          <t>-8,39; 0,53</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-12,21; 34,18</t>
+          <t>-8,18; 0,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-40,45; 102,61</t>
+          <t>-9,54; 4,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-14,43; 213,81</t>
+          <t>-79,21; 54,74</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-31,92; 185,81</t>
+          <t>-86,38; 22,82</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-86,62; 20,55</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-69,87; 77,25</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>38,57</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,61</t>
+          <t>-2,03</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>16,34</t>
+          <t>-0,64</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>188,88%</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,45%</t>
+          <t>124,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>44,72%</t>
+          <t>-42,2%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-13,36%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>17,62%</t>
         </is>
       </c>
     </row>
@@ -802,39 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 61,24</t>
+          <t>-1,62; 7,01</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,06; 36,48</t>
+          <t>-7,17; 2,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-15,32; 43,75</t>
+          <t>-7,18; 3,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,16; 752,19</t>
+          <t>-4,72; 5,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-49,32; 208,68</t>
+          <t>-52,78; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,17; 290,24</t>
+          <t>-86,73; 112,51</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-83,31; 218,74</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-74,75; 331,38</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>12,95</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>21,67</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>33,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>60,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,160 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 28,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 38,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-8,09; 27,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 91,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 138,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-17,88; 102,5</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-3,2</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>-1,33</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>9,43%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-46,35%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-52,46%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-16,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,85; 4,35</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 0,1</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-6,7; -0,43</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-5,73; 3,2</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-42,98; 132,56</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-73,55; 5,95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-76,59; 2,34</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-54,83; 54,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P12A1_3_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,195 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,16</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-4,52</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-8,95</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>-1,95</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>121,09%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-33,79%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-14,75%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>6.030273127133172</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-4.469648988386633</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-9.279171354401061</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>1.181506976487104</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>0.8629967017568447</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.308077168067614</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.09135793513936652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-4,18; 22,24</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-18,84; 8,72</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-20,8; -1,76</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-16,21; 14,37</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-67,1; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-88,34; 167,44</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-74,64; 271,61</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.259939817695038</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-18.58114432505678</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-21.0084633066689</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-13.5641846290493</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.7641224795417751</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.8647766476307092</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.7052450002082419</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>20.08904820290149</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>10.46338830295707</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>-2.03255331096453</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>19.62249133257549</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>10.27426272777633</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>2.05817081582913</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>3.833294119660458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-3,16</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,69</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-3,6</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-2,64</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-43,78%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-55,27%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-54,92%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-28,35%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-8,28; 1,48</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,39; 0,53</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-8,18; 0,35</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-9,54; 4,0</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-79,21; 54,74</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-86,38; 22,82</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-86,62; 20,55</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-69,87; 77,25</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-3.164625774220732</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-3.340475956129551</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-3.269914694914132</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.502098469642199</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.4621580342018069</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.5274371866900789</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.5297949367466172</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2899752839681215</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>2,69</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-2,03</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,64</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>124,58%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-42,2%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-13,36%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>17,62%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-8.019349623050191</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-7.868634810635422</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-7.679278544808088</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-9.033198543009336</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.806402851993501</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.8595323772441632</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.8596776033388713</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.7081423743444609</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,62; 7,01</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,17; 2,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-7,18; 3,94</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 5,6</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-52,78; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-86,73; 112,51</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-83,31; 218,74</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-74,75; 331,38</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>1.176299701336805</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.7153095888091775</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.5002674964476391</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>3.479682201984557</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>0.3915583189184874</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.3299889363340777</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.2531463641777122</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.7485808610588582</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,212 +823,209 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.60057497819398</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-2.216953776773351</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4238670970211397</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.7595162757867445</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>1.375482715962314</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.4480508639483718</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.09654232154925478</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.1949468682064564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.345182771938298</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.705183780131776</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-6.43736864442611</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.476917551831368</v>
+      </c>
+      <c r="G11" s="6" t="n">
+        <v>-0.5304797335457729</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.8807098465170607</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.8261983173752483</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.7186775005310712</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>6.546327368447781</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.869508633673866</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.933498155437226</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>5.362024119027305</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="n">
+        <v>1.062141856823618</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>2.291387013540763</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>3.735709769439232</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,49</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-3,2</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-3,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-1,33</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>9,43%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-46,35%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-52,46%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-16,13%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-2,85; 4,35</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-6,76; 0,1</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,7; -0,43</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-5,73; 3,2</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-42,98; 132,56</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-73,55; 5,95</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-76,59; 2,34</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-54,83; 54,97</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.3166831029761896</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-3.012170052833935</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-3.121854174501772</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-0.5999263218669684</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>0.06386097223655191</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.4366609664004777</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.5215231896636089</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.07719531533688899</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-2.967999595276244</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-6.561418249592221</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-6.315327080972345</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-4.903348959419178</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.4416868115383609</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.7221936924732706</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7681879440826634</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.4956699221672655</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>3.906565047519377</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.2901123489044899</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-0.2912078583750091</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>4.415967499261242</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>1.234552514608343</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.1588195406524078</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.04575589403295255</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7665988502568142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
